--- a/SynxCat_test_sheet1.xlsx
+++ b/SynxCat_test_sheet1.xlsx
@@ -429,7 +429,7 @@
         <v>Count</v>
       </c>
       <c r="B3" t="str">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="str">
         <v>Count</v>
